--- a/PageObjectModelBasics/src/test/resources/com/pol/excel/TestData.xlsx
+++ b/PageObjectModelBasics/src/test/resources/com/pol/excel/TestData.xlsx
@@ -4,55 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="3" r:id="rId1"/>
-    <sheet name="AddCustomer" sheetId="1" r:id="rId2"/>
-    <sheet name="OpenAccount" sheetId="2" r:id="rId3"/>
+    <sheet name="LoginTest" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>postcode</t>
-  </si>
-  <si>
-    <t>ram</t>
-  </si>
-  <si>
-    <t>dash</t>
-  </si>
-  <si>
-    <t>sam</t>
-  </si>
-  <si>
-    <t>alerttext</t>
-  </si>
-  <si>
-    <t>Customer added successfully</t>
-  </si>
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>ram dash</t>
-  </si>
-  <si>
-    <t>Rupee</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>TCID</t>
   </si>
@@ -60,37 +23,25 @@
     <t>Runmode</t>
   </si>
   <si>
-    <t>OpenAccountTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BankMangerLogin </t>
-  </si>
-  <si>
-    <t>AddCustomerTest</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>hari</t>
-  </si>
-  <si>
-    <t>gopal</t>
-  </si>
-  <si>
-    <t>patel</t>
-  </si>
-  <si>
-    <t>mishra</t>
-  </si>
-  <si>
-    <t>prasad</t>
-  </si>
-  <si>
     <t>RunMode</t>
   </si>
   <si>
-    <t>N</t>
+    <t>LoginTest</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>seleniumtesterbangalore@gmail.com</t>
+  </si>
+  <si>
+    <t>123selenium*</t>
   </si>
 </sst>
 </file>
@@ -422,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -435,34 +386,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -472,131 +407,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>6789</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <v>44554</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4">
-        <v>44554</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>44554</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
